--- a/biology/Botanique/Mélèze_de_Dahurie/Mélèze_de_Dahurie.xlsx
+++ b/biology/Botanique/Mélèze_de_Dahurie/Mélèze_de_Dahurie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9l%C3%A8ze_de_Dahurie</t>
+          <t>Mélèze_de_Dahurie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Larix gmelinii
 Le mélèze de Dahurie (Larix gmelinii) est une espèce d'arbre du genre Larix et de la famille des Pinaceae.
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9l%C3%A8ze_de_Dahurie</t>
+          <t>Mélèze_de_Dahurie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>L'espèce comporte 4 variétés :
 Larix gmelinii var. gmelinii - C'est l'espèce la plus courante en Sibérie de la vallée du Ienisseï au Kamtchatka.
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M%C3%A9l%C3%A8ze_de_Dahurie</t>
+          <t>Mélèze_de_Dahurie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Hybridation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mélèze de Dahurie peut s'hybrider avec le mélèze de Sibérie (Larix sibirica) espèce proche qui pousse en Sibérie occidentale et dont il côtoie le domaine dans la vallée de l'Ienisseï : l'hybride est connu sous l'appellation Larix ×czekanowskii.
 </t>
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>M%C3%A9l%C3%A8ze_de_Dahurie</t>
+          <t>Mélèze_de_Dahurie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,10 +596,12 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mélèze de Dahurie peut parfois être cultivé dans des jardins botaniques d'Europe et d'Amérique du Nord. L'arbre pousse difficilement dans ces régions où les hivers sont doux car il reste en repos total durant de longues périodes hivernales et des températures douces durant l'hiver déclenchent l'apparition de feuilles dès début janvier qui sont tuées au premier froid (dans sa région d'origine, les gelées ne disparaissent que fin mai ou début juin).
-Un arbre de cette espèce aurait atteint 919 ans en Iakoutie[1].
+Un arbre de cette espèce aurait atteint 919 ans en Iakoutie.
 </t>
         </is>
       </c>
@@ -594,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>M%C3%A9l%C3%A8ze_de_Dahurie</t>
+          <t>Mélèze_de_Dahurie</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,11 +630,13 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Abies gmelinii Rupr.
 Du fait de la variabilité de l'espèce elle a reçu de nombreuses appellations dans la littérature scientifique.
-Larix cajanderi[2] Mayr
+Larix cajanderi Mayr
 Larix dahurica Turcz. ex Trautv.
 Larix kamtschatica (Rupr.) Carrière
 Larix komarovii Kolesn.
@@ -631,7 +651,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>M%C3%A9l%C3%A8ze_de_Dahurie</t>
+          <t>Mélèze_de_Dahurie</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -649,7 +669,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ (ru) Самое старое дерево России растет в Якутии 
